--- a/GUI/registration/employee/employees.xlsx
+++ b/GUI/registration/employee/employees.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1142,208 +1142,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ryelli</t>
+          <t>Mikaella Aloa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>mikayaloa@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09123456789</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kjioj</t>
+          <t>Somewhere</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMP_5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMP_8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EMP_11</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EMP_12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Shanghai gc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>shanghai@e.c</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Chief Operating Officer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0999</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>add2</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/registration/employee/employees.xlsx
+++ b/GUI/registration/employee/employees.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1176,12 +1176,48 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMP_3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eleonora Kliesen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>itsleo@mail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Department Head</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09123456789</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sa bahay din</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/registration/employee/employees.xlsx
+++ b/GUI/registration/employee/employees.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Somewhere</t>
+          <t>Somewhere under the sun 123</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>itsleo@mail.com</t>
+          <t>itsloe@g.co</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Department Head</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sa bahay din</t>
+          <t>sample</t>
         </is>
       </c>
     </row>

--- a/GUI/registration/employee/employees.xlsx
+++ b/GUI/registration/employee/employees.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
